--- a/data/staff.xlsx
+++ b/data/staff.xlsx
@@ -264,11 +264,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="d\,m\,yy;@"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -302,9 +303,12 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -312,6 +316,18 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -322,17 +338,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -344,26 +362,92 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,89 +458,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -473,187 +474,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,6 +683,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -697,11 +716,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,16 +746,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -750,170 +775,146 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -932,13 +933,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1263,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="14.8"/>

--- a/data/staff.xlsx
+++ b/data/staff.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="11840" tabRatio="500"/>
+    <workbookView windowWidth="29400" windowHeight="14340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -267,9 +267,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="d\,m\,yy;@"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -311,6 +311,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -318,16 +345,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -338,6 +361,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -346,6 +385,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -356,37 +416,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -402,6 +431,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -409,14 +445,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,35 +458,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -474,19 +474,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,25 +630,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,133 +654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,24 +679,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -731,6 +713,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -742,6 +733,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,137 +783,137 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1264,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E38"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="14.8"/>
@@ -1367,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="7">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H33" s="7">
         <v>20</v>

--- a/data/staff.xlsx
+++ b/data/staff.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Пользователь\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4732A04-E4F5-4AEC-9853-05CF909BB904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="14340" tabRatio="500"/>
+    <workbookView xWindow="930" yWindow="1605" windowWidth="26565" windowHeight="12705" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -263,15 +268,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="d\,m\,yy;@"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d\,m\,yy;@"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -302,164 +303,8 @@
       <name val="Arial Unicode MS"/>
       <charset val="204"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,194 +317,8 @@
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -682,243 +341,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -933,72 +360,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1256,69 +642,69 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5859375" defaultRowHeight="14.8"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="40.4765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.171875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3125" style="1" customWidth="1"/>
-    <col min="5" max="9" width="14.171875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.34375" style="1" customWidth="1"/>
-    <col min="11" max="14" width="12.1484375" customWidth="1"/>
+    <col min="2" max="2" width="40.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
+    <col min="5" max="9" width="14.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" style="1" customWidth="1"/>
+    <col min="11" max="14" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" ht="17" customHeight="1" spans="1:9">
+    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1347,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:11">
+    <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1367,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="7">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -1377,7 +763,7 @@
       </c>
       <c r="K4" s="9"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:9">
+    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1406,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:9">
+    <row r="6" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1435,7 +821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:9">
+    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1464,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:9">
+    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1493,7 +879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:9">
+    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1522,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:9">
+    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1551,7 +937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:9">
+    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1574,13 +960,13 @@
         <v>45</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:9">
+    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1609,7 +995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:9">
+    <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -1638,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:9">
+    <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -1667,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:9">
+    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -1696,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:9">
+    <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -1725,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:9">
+    <row r="17" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1754,7 +1140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:9">
+    <row r="18" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -1783,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:9">
+    <row r="19" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -1812,7 +1198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:9">
+    <row r="20" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -1841,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:9">
+    <row r="21" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -1870,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:9">
+    <row r="22" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -1899,7 +1285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:9">
+    <row r="23" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -1928,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:9">
+    <row r="24" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -1957,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1" spans="1:9">
+    <row r="25" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -1986,7 +1372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="1" spans="1:9">
+    <row r="26" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -2015,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1" spans="1:9">
+    <row r="27" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="2">
         <v>28</v>
       </c>
@@ -2044,7 +1430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1" spans="1:9">
+    <row r="28" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="2">
         <v>29</v>
       </c>
@@ -2073,7 +1459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:9">
+    <row r="29" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="2">
         <v>30</v>
       </c>
@@ -2102,7 +1488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1" spans="1:9">
+    <row r="30" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="2">
         <v>31</v>
       </c>
@@ -2131,7 +1517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1" spans="1:9">
+    <row r="31" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="2">
         <v>32</v>
       </c>
@@ -2160,7 +1546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="1" spans="1:9">
+    <row r="32" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="2">
         <v>33</v>
       </c>
@@ -2189,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1" spans="1:9">
+    <row r="33" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="2">
         <v>34</v>
       </c>
@@ -2209,16 +1595,16 @@
         <v>0</v>
       </c>
       <c r="G33" s="7">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H33" s="7">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I33" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1" spans="1:9">
+    <row r="34" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="2">
         <v>35</v>
       </c>
@@ -2247,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="1" spans="1:9">
+    <row r="35" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="2">
         <v>36</v>
       </c>
@@ -2276,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1" spans="1:9">
+    <row r="36" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="2">
         <v>37</v>
       </c>
@@ -2305,7 +1691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" ht="16.8" spans="1:9">
+    <row r="37" spans="1:9">
       <c r="A37" s="4">
         <v>38</v>
       </c>
@@ -2334,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="16.8" spans="1:9">
+    <row r="38" spans="1:9">
       <c r="A38" s="4">
         <v>39</v>
       </c>
@@ -2363,31 +1749,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="1048566" ht="12.8" customHeight="1"/>
-    <row r="1048567" ht="12.8" customHeight="1"/>
-    <row r="1048568" ht="12.8" customHeight="1"/>
-    <row r="1048569" ht="12.8" customHeight="1"/>
-    <row r="1048570" ht="12.8" customHeight="1"/>
-    <row r="1048571" ht="12.8" customHeight="1"/>
-    <row r="1048572" ht="12.8" customHeight="1"/>
-    <row r="1048573" ht="12.8" customHeight="1"/>
-    <row r="1048574" ht="12.8" customHeight="1"/>
-    <row r="1048575" ht="12.8" customHeight="1"/>
-    <row r="1048576" ht="12.8" customHeight="1"/>
+    <row r="1048566" ht="12.75" customHeight="1"/>
+    <row r="1048567" ht="12.75" customHeight="1"/>
+    <row r="1048568" ht="12.75" customHeight="1"/>
+    <row r="1048569" ht="12.75" customHeight="1"/>
+    <row r="1048570" ht="12.75" customHeight="1"/>
+    <row r="1048571" ht="12.75" customHeight="1"/>
+    <row r="1048572" ht="12.75" customHeight="1"/>
+    <row r="1048573" ht="12.75" customHeight="1"/>
+    <row r="1048574" ht="12.75" customHeight="1"/>
+    <row r="1048575" ht="12.75" customHeight="1"/>
+    <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>